--- a/table_model___spi-12__lasso_($\beta_=_$0.1).xlsx
+++ b/table_model___spi-12__lasso_($\beta_=_$0.1).xlsx
@@ -690,13 +690,13 @@
         <v>0.278762905</v>
       </c>
       <c r="B2">
-        <v>0.1973703258825765</v>
+        <v>0.202980882847433</v>
       </c>
       <c r="C2">
-        <v>0.1947815773483732</v>
+        <v>0.2012186960772039</v>
       </c>
       <c r="D2">
-        <v>0.1972824142862428</v>
+        <v>0.1940445156634991</v>
       </c>
       <c r="E2">
         <v>0.1948913006577181</v>
@@ -845,13 +845,13 @@
         <v>0.444861224</v>
       </c>
       <c r="B3">
-        <v>0.4012861851488652</v>
+        <v>0.3904889432916693</v>
       </c>
       <c r="C3">
-        <v>0.3932623105082552</v>
+        <v>0.3914970525102915</v>
       </c>
       <c r="D3">
-        <v>0.4012076852547259</v>
+        <v>0.3899400632985662</v>
       </c>
       <c r="E3">
         <v>0.3930500895571259</v>
@@ -1000,13 +1000,13 @@
         <v>0.626507386</v>
       </c>
       <c r="B4">
-        <v>0.4613868653769336</v>
+        <v>0.448385227334695</v>
       </c>
       <c r="C4">
-        <v>0.4553916438798055</v>
+        <v>0.4508311500710301</v>
       </c>
       <c r="D4">
-        <v>0.4635009055875027</v>
+        <v>0.4539815456977549</v>
       </c>
       <c r="E4">
         <v>0.4548508251655747</v>
@@ -1155,13 +1155,13 @@
         <v>0.692550886</v>
       </c>
       <c r="B5">
-        <v>0.5331572905950386</v>
+        <v>0.5267234956635602</v>
       </c>
       <c r="C5">
-        <v>0.5244298240494223</v>
+        <v>0.5297571672434305</v>
       </c>
       <c r="D5">
-        <v>0.5357612442872625</v>
+        <v>0.529807141954312</v>
       </c>
       <c r="E5">
         <v>0.5237981569344763</v>
@@ -1310,13 +1310,13 @@
         <v>0.842026137</v>
       </c>
       <c r="B6">
-        <v>0.757211497004016</v>
+        <v>0.7366915117393887</v>
       </c>
       <c r="C6">
-        <v>0.7218570762848533</v>
+        <v>0.742911934895897</v>
       </c>
       <c r="D6">
-        <v>0.7591673818477408</v>
+        <v>0.7596484812766573</v>
       </c>
       <c r="E6">
         <v>0.7208205920953691</v>
@@ -1465,13 +1465,13 @@
         <v>1.197703675</v>
       </c>
       <c r="B7">
-        <v>1.249544267253795</v>
+        <v>1.212069802432742</v>
       </c>
       <c r="C7">
-        <v>1.218495988093242</v>
+        <v>1.218926560795315</v>
       </c>
       <c r="D7">
-        <v>1.251180355109966</v>
+        <v>1.247523531434761</v>
       </c>
       <c r="E7">
         <v>1.217992040547524</v>
@@ -1620,13 +1620,13 @@
         <v>0.960333763</v>
       </c>
       <c r="B8">
-        <v>0.8601153304253188</v>
+        <v>0.8438522370163404</v>
       </c>
       <c r="C8">
-        <v>0.8438026105570473</v>
+        <v>0.8455923015241062</v>
       </c>
       <c r="D8">
-        <v>0.8638626304140982</v>
+        <v>0.8634649191578981</v>
       </c>
       <c r="E8">
         <v>0.8394441953735664</v>
@@ -1775,13 +1775,13 @@
         <v>0.436720642</v>
       </c>
       <c r="B9">
-        <v>0.1903214589469952</v>
+        <v>0.1937387723091619</v>
       </c>
       <c r="C9">
-        <v>0.180586877136691</v>
+        <v>0.2034588042460637</v>
       </c>
       <c r="D9">
-        <v>0.1965468494749645</v>
+        <v>0.1915743163936784</v>
       </c>
       <c r="E9">
         <v>0.1846518502693231</v>
@@ -1930,13 +1930,13 @@
         <v>-0.228589736</v>
       </c>
       <c r="B10">
-        <v>0.08185617436150845</v>
+        <v>0.1021635789348517</v>
       </c>
       <c r="C10">
-        <v>0.08900975021877391</v>
+        <v>0.09274535310331748</v>
       </c>
       <c r="D10">
-        <v>0.1049287966122658</v>
+        <v>0.08343039863934791</v>
       </c>
       <c r="E10">
         <v>0.09039008902269151</v>
@@ -2085,13 +2085,13 @@
         <v>-0.296024885</v>
       </c>
       <c r="B11">
-        <v>-0.2969845769616674</v>
+        <v>-0.2465080488272851</v>
       </c>
       <c r="C11">
-        <v>-0.2545501036163469</v>
+        <v>-0.2855985029262457</v>
       </c>
       <c r="D11">
-        <v>-0.270391303450862</v>
+        <v>-0.2957417990613618</v>
       </c>
       <c r="E11">
         <v>-0.2552457459430245</v>
@@ -2240,13 +2240,13 @@
         <v>-0.420720253</v>
       </c>
       <c r="B12">
-        <v>-0.5046424467099</v>
+        <v>-0.483787424895793</v>
       </c>
       <c r="C12">
-        <v>-0.4968244503687317</v>
+        <v>-0.4841663072965088</v>
       </c>
       <c r="D12">
-        <v>-0.5041681059742101</v>
+        <v>-0.5019995609769368</v>
       </c>
       <c r="E12">
         <v>-0.4975429267290783</v>
@@ -2395,13 +2395,13 @@
         <v>-0.425623542</v>
       </c>
       <c r="B13">
-        <v>-0.5485108610041267</v>
+        <v>-0.5270887646716509</v>
       </c>
       <c r="C13">
-        <v>-0.5394681785321175</v>
+        <v>-0.5294248724537405</v>
       </c>
       <c r="D13">
-        <v>-0.5469521567639608</v>
+        <v>-0.5459973464888642</v>
       </c>
       <c r="E13">
         <v>-0.5402744852815524</v>
@@ -2550,13 +2550,13 @@
         <v>0.026699591</v>
       </c>
       <c r="B14">
-        <v>0.02527428117178701</v>
+        <v>0.002060851475921565</v>
       </c>
       <c r="C14">
-        <v>-0.02785611942801665</v>
+        <v>0.0108024584211872</v>
       </c>
       <c r="D14">
-        <v>0.02713917841997974</v>
+        <v>0.02493890844876005</v>
       </c>
       <c r="E14">
         <v>-0.02728353898261789</v>
@@ -2705,13 +2705,13 @@
         <v>0.13916043</v>
       </c>
       <c r="B15">
-        <v>0.2062273957267515</v>
+        <v>0.1762357782763141</v>
       </c>
       <c r="C15">
-        <v>0.1407925110610169</v>
+        <v>0.187324896710306</v>
       </c>
       <c r="D15">
-        <v>0.2073874845028475</v>
+        <v>0.1997605911434881</v>
       </c>
       <c r="E15">
         <v>0.1477480250225455</v>
@@ -2860,13 +2860,13 @@
         <v>-0.207233368</v>
       </c>
       <c r="B16">
-        <v>-0.04731542472413211</v>
+        <v>-0.05734594501093904</v>
       </c>
       <c r="C16">
-        <v>-0.1007395461313284</v>
+        <v>-0.04319772933881844</v>
       </c>
       <c r="D16">
-        <v>-0.05690992083672807</v>
+        <v>-0.04273027992421782</v>
       </c>
       <c r="E16">
         <v>-0.1034397581716001</v>
@@ -3015,13 +3015,13 @@
         <v>-0.369649639</v>
       </c>
       <c r="B17">
-        <v>-0.1822435196816937</v>
+        <v>-0.1776931976965179</v>
       </c>
       <c r="C17">
-        <v>-0.1887308795384002</v>
+        <v>-0.172009074899367</v>
       </c>
       <c r="D17">
-        <v>-0.1840653044780166</v>
+        <v>-0.1791903189155988</v>
       </c>
       <c r="E17">
         <v>-0.1889579334576435</v>
@@ -3170,13 +3170,13 @@
         <v>-0.299325805</v>
       </c>
       <c r="B18">
-        <v>-0.1132824060523312</v>
+        <v>-0.1133374316675765</v>
       </c>
       <c r="C18">
-        <v>-0.1099684164157048</v>
+        <v>-0.1074380218209003</v>
       </c>
       <c r="D18">
-        <v>-0.1141283468968434</v>
+        <v>-0.1092009335270693</v>
       </c>
       <c r="E18">
         <v>-0.1095317677979637</v>
@@ -3325,13 +3325,13 @@
         <v>-0.909290358</v>
       </c>
       <c r="B19">
-        <v>-0.9195659802734211</v>
+        <v>-0.873462100664724</v>
       </c>
       <c r="C19">
-        <v>-0.8829962904987383</v>
+        <v>-0.8722259431323673</v>
       </c>
       <c r="D19">
-        <v>-0.9194029560182372</v>
+        <v>-0.9165637269806942</v>
       </c>
       <c r="E19">
         <v>-0.8835968056506951</v>
@@ -3480,13 +3480,13 @@
         <v>-1.006159673</v>
       </c>
       <c r="B20">
-        <v>-1.025592058049588</v>
+        <v>-0.9668309238095664</v>
       </c>
       <c r="C20">
-        <v>-0.9700180513685011</v>
+        <v>-0.96975398644862</v>
       </c>
       <c r="D20">
-        <v>-1.02738286674894</v>
+        <v>-1.023722892841919</v>
       </c>
       <c r="E20">
         <v>-0.9702856414228169</v>
@@ -3635,13 +3635,13 @@
         <v>-1.032778528</v>
       </c>
       <c r="B21">
-        <v>-0.9931785976642624</v>
+        <v>-0.9402904411490759</v>
       </c>
       <c r="C21">
-        <v>-0.9497791162953716</v>
+        <v>-0.9476828233165706</v>
       </c>
       <c r="D21">
-        <v>-0.999535502570737</v>
+        <v>-0.9896920506419109</v>
       </c>
       <c r="E21">
         <v>-0.9511524477893696</v>
@@ -3790,13 +3790,13 @@
         <v>-1.351767382</v>
       </c>
       <c r="B22">
-        <v>-1.354721857603586</v>
+        <v>-1.283426429313998</v>
       </c>
       <c r="C22">
-        <v>-1.296646748031134</v>
+        <v>-1.276918703608338</v>
       </c>
       <c r="D22">
-        <v>-1.361166178052609</v>
+        <v>-1.349312627740103</v>
       </c>
       <c r="E22">
         <v>-1.297511623134727</v>
@@ -3945,13 +3945,13 @@
         <v>-1.349975863</v>
       </c>
       <c r="B23">
-        <v>-1.432416251352546</v>
+        <v>-1.374602934413333</v>
       </c>
       <c r="C23">
-        <v>-1.400483538106883</v>
+        <v>-1.367763408669861</v>
       </c>
       <c r="D23">
-        <v>-1.436174952974061</v>
+        <v>-1.423364322667767</v>
       </c>
       <c r="E23">
         <v>-1.401681406837702</v>
@@ -4100,13 +4100,13 @@
         <v>-1.316829649</v>
       </c>
       <c r="B24">
-        <v>-1.38066702565766</v>
+        <v>-1.30637458652899</v>
       </c>
       <c r="C24">
-        <v>-1.321330522480179</v>
+        <v>-1.29186631924881</v>
       </c>
       <c r="D24">
-        <v>-1.38527952077653</v>
+        <v>-1.374791684460497</v>
       </c>
       <c r="E24">
         <v>-1.321727440795218</v>
@@ -4255,13 +4255,13 @@
         <v>-1.162164831</v>
       </c>
       <c r="B25">
-        <v>-1.204778672686919</v>
+        <v>-1.138286673601637</v>
       </c>
       <c r="C25">
-        <v>-1.15496023425241</v>
+        <v>-1.125109025199671</v>
       </c>
       <c r="D25">
-        <v>-1.209407949338918</v>
+        <v>-1.198832612105984</v>
       </c>
       <c r="E25">
         <v>-1.155467419627987</v>
@@ -4410,13 +4410,13 @@
         <v>-2.374889683</v>
       </c>
       <c r="B26">
-        <v>-2.204529856152787</v>
+        <v>-2.094836736209838</v>
       </c>
       <c r="C26">
-        <v>-2.068640712227929</v>
+        <v>-2.087355084370078</v>
       </c>
       <c r="D26">
-        <v>-2.240114788174235</v>
+        <v>-2.206903584990927</v>
       </c>
       <c r="E26">
         <v>-2.066457610098499</v>
@@ -4565,13 +4565,13 @@
         <v>-2.362980599</v>
       </c>
       <c r="B27">
-        <v>-2.255109935549719</v>
+        <v>-2.169450162052806</v>
       </c>
       <c r="C27">
-        <v>-2.146176710668943</v>
+        <v>-2.175020036542286</v>
       </c>
       <c r="D27">
-        <v>-2.291032563751608</v>
+        <v>-2.258130399574756</v>
       </c>
       <c r="E27">
         <v>-2.143842585326198</v>
@@ -4720,13 +4720,13 @@
         <v>-1.854352008</v>
       </c>
       <c r="B28">
-        <v>-1.693686273442779</v>
+        <v>-1.618479257303941</v>
       </c>
       <c r="C28">
-        <v>-1.60946238185072</v>
+        <v>-1.641867137493277</v>
       </c>
       <c r="D28">
-        <v>-1.733803997440359</v>
+        <v>-1.694195951245674</v>
       </c>
       <c r="E28">
         <v>-1.608780175316062</v>
@@ -4875,13 +4875,13 @@
         <v>-1.20254712</v>
       </c>
       <c r="B29">
-        <v>-0.7363760637370169</v>
+        <v>-0.7140822440404279</v>
       </c>
       <c r="C29">
-        <v>-0.7313987744701366</v>
+        <v>-0.7179624878192985</v>
       </c>
       <c r="D29">
-        <v>-0.7278092879095401</v>
+        <v>-0.7313086745667344</v>
       </c>
       <c r="E29">
         <v>-0.7327061780455076</v>
@@ -5030,13 +5030,13 @@
         <v>-1.403060604</v>
       </c>
       <c r="B30">
-        <v>-1.133697585496967</v>
+        <v>-1.092834632358714</v>
       </c>
       <c r="C30">
-        <v>-1.100812421124029</v>
+        <v>-1.107442953539235</v>
       </c>
       <c r="D30">
-        <v>-1.199473949952553</v>
+        <v>-1.131465835514764</v>
       </c>
       <c r="E30">
         <v>-1.10147918559928</v>
@@ -5185,13 +5185,13 @@
         <v>-1.491966078</v>
       </c>
       <c r="B31">
-        <v>-1.14986519267848</v>
+        <v>-1.106247093009344</v>
       </c>
       <c r="C31">
-        <v>-1.11453159435598</v>
+        <v>-1.117754978826757</v>
       </c>
       <c r="D31">
-        <v>-1.248070775084681</v>
+        <v>-1.147466522443567</v>
       </c>
       <c r="E31">
         <v>-1.114971384805701</v>
@@ -5340,13 +5340,13 @@
         <v>-1.323266071</v>
       </c>
       <c r="B32">
-        <v>-0.8741204169392762</v>
+        <v>-0.8466359133502593</v>
       </c>
       <c r="C32">
-        <v>-0.8623812673595398</v>
+        <v>-0.8513068678025015</v>
       </c>
       <c r="D32">
-        <v>-0.7280353349172757</v>
+        <v>-0.8700011522051667</v>
       </c>
       <c r="E32">
         <v>-0.8633458918317543</v>
@@ -5495,13 +5495,13 @@
         <v>-1.144581365</v>
       </c>
       <c r="B33">
-        <v>-0.7318086915457409</v>
+        <v>-0.7096084768012423</v>
       </c>
       <c r="C33">
-        <v>-0.725990053592975</v>
+        <v>-0.713251688864097</v>
       </c>
       <c r="D33">
-        <v>-0.700891185167384</v>
+        <v>-0.7274505814965128</v>
       </c>
       <c r="E33">
         <v>-0.727027343890692</v>
@@ -5650,13 +5650,13 @@
         <v>-0.89859408</v>
       </c>
       <c r="B34">
-        <v>-0.5524309207094575</v>
+        <v>-0.5343886869461145</v>
       </c>
       <c r="C34">
-        <v>-0.5492521895586373</v>
+        <v>-0.5362726437230194</v>
       </c>
       <c r="D34">
-        <v>-0.5480780098039458</v>
+        <v>-0.5487261205548581</v>
       </c>
       <c r="E34">
         <v>-0.5506014293218943</v>
@@ -5805,13 +5805,13 @@
         <v>-1.208296977</v>
       </c>
       <c r="B35">
-        <v>-0.7176061840437786</v>
+        <v>-0.6978789538774295</v>
       </c>
       <c r="C35">
-        <v>-0.7036900716825569</v>
+        <v>-0.7110370799873327</v>
       </c>
       <c r="D35">
-        <v>-0.7195338558181691</v>
+        <v>-0.7156508906964177</v>
       </c>
       <c r="E35">
         <v>-0.7062415494473102</v>
@@ -5960,13 +5960,13 @@
         <v>-1.259727733</v>
       </c>
       <c r="B36">
-        <v>-0.7163488481724305</v>
+        <v>-0.6961570650641941</v>
       </c>
       <c r="C36">
-        <v>-0.7022300026304322</v>
+        <v>-0.7090961087779766</v>
       </c>
       <c r="D36">
-        <v>-0.7261811834382117</v>
+        <v>-0.7146636983149116</v>
       </c>
       <c r="E36">
         <v>-0.7043283091438159</v>
@@ -6115,13 +6115,13 @@
         <v>-1.383918</v>
       </c>
       <c r="B37">
-        <v>-0.8072753660537644</v>
+        <v>-0.7841081876461581</v>
       </c>
       <c r="C37">
-        <v>-0.7903150515218316</v>
+        <v>-0.7985913987368549</v>
       </c>
       <c r="D37">
-        <v>-0.8225990694842741</v>
+        <v>-0.8058508102208776</v>
       </c>
       <c r="E37">
         <v>-0.7917846542073521</v>
@@ -6270,13 +6270,13 @@
         <v>-0.507959834</v>
       </c>
       <c r="B38">
-        <v>-0.2046083427483707</v>
+        <v>-0.1902722685137465</v>
       </c>
       <c r="C38">
-        <v>-0.1746868154969148</v>
+        <v>-0.1905531818444569</v>
       </c>
       <c r="D38">
-        <v>-0.1973440473977118</v>
+        <v>-0.1908284310146113</v>
       </c>
       <c r="E38">
         <v>-0.1753696741145469</v>
@@ -6425,13 +6425,13 @@
         <v>-0.476870668</v>
       </c>
       <c r="B39">
-        <v>-0.1796390639249436</v>
+        <v>-0.1788632065126299</v>
       </c>
       <c r="C39">
-        <v>-0.2141721876822989</v>
+        <v>-0.1813531677010833</v>
       </c>
       <c r="D39">
-        <v>-0.1691688035572392</v>
+        <v>-0.1866079908053476</v>
       </c>
       <c r="E39">
         <v>-0.2145538162158663</v>
@@ -6580,13 +6580,13 @@
         <v>-0.803788133</v>
       </c>
       <c r="B40">
-        <v>-0.5840629936713326</v>
+        <v>-0.5649275172615605</v>
       </c>
       <c r="C40">
-        <v>-0.5805372798497757</v>
+        <v>-0.5663738278673915</v>
       </c>
       <c r="D40">
-        <v>-0.5790408536556422</v>
+        <v>-0.5791615656269863</v>
       </c>
       <c r="E40">
         <v>-0.5822915570665974</v>
@@ -6735,13 +6735,13 @@
         <v>-1.016775122</v>
       </c>
       <c r="B41">
-        <v>-1.135339797604414</v>
+        <v>-1.101297189703021</v>
       </c>
       <c r="C41">
-        <v>-1.10705404122359</v>
+        <v>-1.113926849698195</v>
       </c>
       <c r="D41">
-        <v>-1.151974431563925</v>
+        <v>-1.133750678665162</v>
       </c>
       <c r="E41">
         <v>-1.107725851991163</v>
@@ -6890,13 +6890,13 @@
         <v>-0.429762109</v>
       </c>
       <c r="B42">
-        <v>-0.4698320752169018</v>
+        <v>-0.4532495514309534</v>
       </c>
       <c r="C42">
-        <v>-0.4613657869044899</v>
+        <v>-0.4522929298943588</v>
       </c>
       <c r="D42">
-        <v>-0.4677438354383231</v>
+        <v>-0.4624265271055822</v>
       </c>
       <c r="E42">
         <v>-0.4621200314415562</v>
@@ -7045,13 +7045,13 @@
         <v>0.294720854</v>
       </c>
       <c r="B43">
-        <v>0.5879515566434497</v>
+        <v>0.5031087474575339</v>
       </c>
       <c r="C43">
-        <v>0.4846186342876564</v>
+        <v>0.5118178126219839</v>
       </c>
       <c r="D43">
-        <v>0.5804947192756253</v>
+        <v>0.5876870673848091</v>
       </c>
       <c r="E43">
         <v>0.4847060461087861</v>
@@ -7200,13 +7200,13 @@
         <v>0.297543939</v>
       </c>
       <c r="B44">
-        <v>0.7426911211492428</v>
+        <v>0.6559488985454445</v>
       </c>
       <c r="C44">
-        <v>0.6401467289815591</v>
+        <v>0.672003631017619</v>
       </c>
       <c r="D44">
-        <v>0.737917067672642</v>
+        <v>0.7415952935943965</v>
       </c>
       <c r="E44">
         <v>0.6402156299981328</v>
@@ -7355,13 +7355,13 @@
         <v>0.6970562769999999</v>
       </c>
       <c r="B45">
-        <v>1.088598273949412</v>
+        <v>0.9975452947122909</v>
       </c>
       <c r="C45">
-        <v>0.9947673999961634</v>
+        <v>1.012123962030995</v>
       </c>
       <c r="D45">
-        <v>1.082137877299848</v>
+        <v>1.08466111842065</v>
       </c>
       <c r="E45">
         <v>0.9959609362417247</v>
@@ -7510,13 +7510,13 @@
         <v>0.537453922</v>
       </c>
       <c r="B46">
-        <v>1.13828264339405</v>
+        <v>1.049187102256385</v>
       </c>
       <c r="C46">
-        <v>1.050774637293495</v>
+        <v>1.062411406615129</v>
       </c>
       <c r="D46">
-        <v>1.131600705281311</v>
+        <v>1.133716291766078</v>
       </c>
       <c r="E46">
         <v>1.05204916630396</v>
@@ -7665,13 +7665,13 @@
         <v>0.744423795</v>
       </c>
       <c r="B47">
-        <v>1.105220227172727</v>
+        <v>1.02411460881561</v>
       </c>
       <c r="C47">
-        <v>1.027506747893788</v>
+        <v>1.026205376720305</v>
       </c>
       <c r="D47">
-        <v>1.096915002492925</v>
+        <v>1.100949500506291</v>
       </c>
       <c r="E47">
         <v>1.028975691551904</v>
@@ -7820,13 +7820,13 @@
         <v>0.901568559</v>
       </c>
       <c r="B48">
-        <v>1.17766578225617</v>
+        <v>1.073213871032083</v>
       </c>
       <c r="C48">
-        <v>1.074306846134361</v>
+        <v>1.06866680664106</v>
       </c>
       <c r="D48">
-        <v>1.165399679594289</v>
+        <v>1.172929145055804</v>
       </c>
       <c r="E48">
         <v>1.076498277739466</v>
@@ -7975,13 +7975,13 @@
         <v>0.868054445</v>
       </c>
       <c r="B49">
-        <v>1.139126997726528</v>
+        <v>1.037310943617167</v>
       </c>
       <c r="C49">
-        <v>1.036441860499026</v>
+        <v>1.035189628129964</v>
       </c>
       <c r="D49">
-        <v>1.12731923795905</v>
+        <v>1.134697479182836</v>
       </c>
       <c r="E49">
         <v>1.038622366941285</v>
@@ -8130,13 +8130,13 @@
         <v>0.277593737</v>
       </c>
       <c r="B50">
-        <v>0.7461563857575069</v>
+        <v>0.6901187927794421</v>
       </c>
       <c r="C50">
-        <v>0.6755805914796189</v>
+        <v>0.6947885832058678</v>
       </c>
       <c r="D50">
-        <v>0.7402959493130592</v>
+        <v>0.7463336398440165</v>
       </c>
       <c r="E50">
         <v>0.6761568963040306</v>
@@ -8285,13 +8285,13 @@
         <v>0.21477772</v>
       </c>
       <c r="B51">
-        <v>0.5870224856774364</v>
+        <v>0.5384774333923564</v>
       </c>
       <c r="C51">
-        <v>0.5180982704980541</v>
+        <v>0.5452393685109374</v>
       </c>
       <c r="D51">
-        <v>0.5818394442957727</v>
+        <v>0.5884496595943642</v>
       </c>
       <c r="E51">
         <v>0.5183670568044831</v>
@@ -8440,13 +8440,13 @@
         <v>0.222558601</v>
       </c>
       <c r="B52">
-        <v>0.7475322139815153</v>
+        <v>0.6879426818807252</v>
       </c>
       <c r="C52">
-        <v>0.6738211594248525</v>
+        <v>0.6889549332807052</v>
       </c>
       <c r="D52">
-        <v>0.7396034804318851</v>
+        <v>0.7476872037291975</v>
       </c>
       <c r="E52">
         <v>0.6746559635768307</v>
@@ -8595,13 +8595,13 @@
         <v>0.670515246</v>
       </c>
       <c r="B53">
-        <v>1.382680648240439</v>
+        <v>1.277629709921513</v>
       </c>
       <c r="C53">
-        <v>1.286573068272358</v>
+        <v>1.2645060674754</v>
       </c>
       <c r="D53">
-        <v>1.366889365488616</v>
+        <v>1.376239555872945</v>
       </c>
       <c r="E53">
         <v>1.290099846890467</v>
@@ -8750,13 +8750,13 @@
         <v>0.668332347</v>
       </c>
       <c r="B54">
-        <v>1.331086923708974</v>
+        <v>1.24891330769304</v>
       </c>
       <c r="C54">
-        <v>1.256336093495643</v>
+        <v>1.252427424952416</v>
       </c>
       <c r="D54">
-        <v>1.321124232878836</v>
+        <v>1.325559766243626</v>
       </c>
       <c r="E54">
         <v>1.258859605972223</v>
@@ -8905,13 +8905,13 @@
         <v>0.600753663</v>
       </c>
       <c r="B55">
-        <v>0.9578787165380993</v>
+        <v>0.9124822398787252</v>
       </c>
       <c r="C55">
-        <v>0.9120674293453689</v>
+        <v>0.9108810593824019</v>
       </c>
       <c r="D55">
-        <v>0.9501158429663852</v>
+        <v>0.9559269877019098</v>
       </c>
       <c r="E55">
         <v>0.9136121977191377</v>
@@ -9060,13 +9060,13 @@
         <v>0.490908996</v>
       </c>
       <c r="B56">
-        <v>0.8571243943937812</v>
+        <v>0.823648424516649</v>
       </c>
       <c r="C56">
-        <v>0.8191774376351456</v>
+        <v>0.824471364546248</v>
       </c>
       <c r="D56">
-        <v>0.8509828775787259</v>
+        <v>0.8567389280731932</v>
       </c>
       <c r="E56">
         <v>0.8203021838927653</v>
@@ -9215,13 +9215,13 @@
         <v>0.124636728</v>
       </c>
       <c r="B57">
-        <v>0.3109251278406643</v>
+        <v>0.2997651564615855</v>
       </c>
       <c r="C57">
-        <v>0.2740052882865505</v>
+        <v>0.3059855748939994</v>
       </c>
       <c r="D57">
-        <v>0.3044511244070559</v>
+        <v>0.3170181403930314</v>
       </c>
       <c r="E57">
         <v>0.2742401237043021</v>
@@ -9370,13 +9370,13 @@
         <v>0.20714928</v>
       </c>
       <c r="B58">
-        <v>0.3346090128375699</v>
+        <v>0.3243099236134082</v>
       </c>
       <c r="C58">
-        <v>0.3015448114244094</v>
+        <v>0.3307123068595591</v>
       </c>
       <c r="D58">
-        <v>0.3273536804347089</v>
+        <v>0.3402535420506668</v>
       </c>
       <c r="E58">
         <v>0.3017626256777142</v>
@@ -9525,13 +9525,13 @@
         <v>0.566646485</v>
       </c>
       <c r="B59">
-        <v>1.015679887657961</v>
+        <v>0.9693577230274483</v>
       </c>
       <c r="C59">
-        <v>0.9676547600702894</v>
+        <v>0.9705313366890604</v>
       </c>
       <c r="D59">
-        <v>1.01077932965759</v>
+        <v>1.014129080297266</v>
       </c>
       <c r="E59">
         <v>0.9686317821014701</v>
@@ -9680,13 +9680,13 @@
         <v>0.703800792</v>
       </c>
       <c r="B60">
-        <v>1.061549686397743</v>
+        <v>1.016942060887555</v>
       </c>
       <c r="C60">
-        <v>1.016876777241432</v>
+        <v>1.023264341376519</v>
       </c>
       <c r="D60">
-        <v>1.058632016007861</v>
+        <v>1.059424128232427</v>
       </c>
       <c r="E60">
         <v>1.017700407121386</v>
@@ -9835,13 +9835,13 @@
         <v>0.6773799150000001</v>
       </c>
       <c r="B61">
-        <v>1.018838083693267</v>
+        <v>0.967055594397261</v>
       </c>
       <c r="C61">
-        <v>0.9619288627850021</v>
+        <v>0.9758717467748022</v>
       </c>
       <c r="D61">
-        <v>1.015882734575578</v>
+        <v>1.017246461072643</v>
       </c>
       <c r="E61">
         <v>0.9626052188693096</v>
@@ -9990,13 +9990,13 @@
         <v>0.568899519</v>
       </c>
       <c r="B62">
-        <v>1.042906624408866</v>
+        <v>0.9849672864970476</v>
       </c>
       <c r="C62">
-        <v>0.97988297879661</v>
+        <v>0.9976226583643697</v>
       </c>
       <c r="D62">
-        <v>1.040189041888037</v>
+        <v>1.040741895204702</v>
       </c>
       <c r="E62">
         <v>0.9806010986515273</v>
@@ -10145,13 +10145,13 @@
         <v>1.937580523</v>
       </c>
       <c r="B63">
-        <v>1.947125545231255</v>
+        <v>1.711276153866728</v>
       </c>
       <c r="C63">
-        <v>1.72976749558137</v>
+        <v>1.734669384451463</v>
       </c>
       <c r="D63">
-        <v>1.922202993206027</v>
+        <v>1.932282798855683</v>
       </c>
       <c r="E63">
         <v>1.735674039918304</v>
@@ -10300,13 +10300,13 @@
         <v>2.026030569</v>
       </c>
       <c r="B64">
-        <v>1.930146855637005</v>
+        <v>1.702584644269322</v>
       </c>
       <c r="C64">
-        <v>1.719150248717501</v>
+        <v>1.728920828839576</v>
       </c>
       <c r="D64">
-        <v>1.907244723623303</v>
+        <v>1.916208694300472</v>
       </c>
       <c r="E64">
         <v>1.724479467297443</v>
@@ -10455,13 +10455,13 @@
         <v>2.024119212</v>
       </c>
       <c r="B65">
-        <v>1.845995193485798</v>
+        <v>1.664881244941125</v>
       </c>
       <c r="C65">
-        <v>1.676608491644179</v>
+        <v>1.69006679021359</v>
       </c>
       <c r="D65">
-        <v>1.830499636840971</v>
+        <v>1.835906719245731</v>
       </c>
       <c r="E65">
         <v>1.679667128517122</v>
@@ -10610,13 +10610,13 @@
         <v>1.756726246</v>
       </c>
       <c r="B66">
-        <v>1.550835255539603</v>
+        <v>1.412237862025253</v>
       </c>
       <c r="C66">
-        <v>1.413892216564365</v>
+        <v>1.441418206097968</v>
       </c>
       <c r="D66">
-        <v>1.541997377835435</v>
+        <v>1.544179121561299</v>
       </c>
       <c r="E66">
         <v>1.415590500915561</v>
@@ -10765,13 +10765,13 @@
         <v>1.327422035</v>
       </c>
       <c r="B67">
-        <v>1.030034664079121</v>
+        <v>0.9467934702590605</v>
       </c>
       <c r="C67">
-        <v>0.931402039343974</v>
+        <v>0.9700023030339344</v>
       </c>
       <c r="D67">
-        <v>1.02959759508376</v>
+        <v>1.030786067950549</v>
       </c>
       <c r="E67">
         <v>0.9289732695407091</v>
@@ -10920,13 +10920,13 @@
         <v>1.49137015</v>
       </c>
       <c r="B68">
-        <v>1.123717172938671</v>
+        <v>1.042727024072034</v>
       </c>
       <c r="C68">
-        <v>1.035343903528999</v>
+        <v>1.065156908085041</v>
       </c>
       <c r="D68">
-        <v>1.123923321770468</v>
+        <v>1.124796119060334</v>
       </c>
       <c r="E68">
         <v>1.031651193705951</v>
@@ -11075,13 +11075,13 @@
         <v>1.563162867</v>
       </c>
       <c r="B69">
-        <v>1.225993552403064</v>
+        <v>1.120229442353397</v>
       </c>
       <c r="C69">
-        <v>1.116193521600005</v>
+        <v>1.148781312451482</v>
       </c>
       <c r="D69">
-        <v>1.223529763814123</v>
+        <v>1.224816781915389</v>
       </c>
       <c r="E69">
         <v>1.113700338223542</v>
@@ -11230,13 +11230,13 @@
         <v>2.17485842</v>
       </c>
       <c r="B70">
-        <v>1.57092110884497</v>
+        <v>1.408518968909379</v>
       </c>
       <c r="C70">
-        <v>1.405870271445775</v>
+        <v>1.449336295847616</v>
       </c>
       <c r="D70">
-        <v>1.563036366901691</v>
+        <v>1.566188882701419</v>
       </c>
       <c r="E70">
         <v>1.405245058025706</v>
@@ -11385,13 +11385,13 @@
         <v>2.042542925</v>
       </c>
       <c r="B71">
-        <v>1.330275200565673</v>
+        <v>1.182573923064574</v>
       </c>
       <c r="C71">
-        <v>1.167277057065856</v>
+        <v>1.206353469486025</v>
       </c>
       <c r="D71">
-        <v>1.321160371147927</v>
+        <v>1.327010524349515</v>
       </c>
       <c r="E71">
         <v>1.167992724605671</v>
@@ -11540,13 +11540,13 @@
         <v>1.888604828</v>
       </c>
       <c r="B72">
-        <v>1.252486239452092</v>
+        <v>1.10540378920392</v>
       </c>
       <c r="C72">
-        <v>1.090102452693823</v>
+        <v>1.128116878130854</v>
       </c>
       <c r="D72">
-        <v>1.243283166629338</v>
+        <v>1.24933238944927</v>
       </c>
       <c r="E72">
         <v>1.090736308372232</v>
@@ -11695,13 +11695,13 @@
         <v>2.04003079</v>
       </c>
       <c r="B73">
-        <v>1.308536006110949</v>
+        <v>1.175987819182098</v>
       </c>
       <c r="C73">
-        <v>1.168324998425494</v>
+        <v>1.194519477871426</v>
       </c>
       <c r="D73">
-        <v>1.299578202470903</v>
+        <v>1.304414587568771</v>
       </c>
       <c r="E73">
         <v>1.169356532501178</v>
@@ -11850,13 +11850,13 @@
         <v>2.000153766</v>
       </c>
       <c r="B74">
-        <v>1.287273516292055</v>
+        <v>1.165634017342904</v>
       </c>
       <c r="C74">
-        <v>1.157384329727183</v>
+        <v>1.182309258142575</v>
       </c>
       <c r="D74">
-        <v>1.279501029769311</v>
+        <v>1.284008211273902</v>
       </c>
       <c r="E74">
         <v>1.157931064032332</v>
@@ -12005,13 +12005,13 @@
         <v>0.864914137</v>
       </c>
       <c r="B75">
-        <v>0.4018566090243877</v>
+        <v>0.4033626606970275</v>
       </c>
       <c r="C75">
-        <v>0.3961329714980685</v>
+        <v>0.4055909963432868</v>
       </c>
       <c r="D75">
-        <v>0.4047049106792084</v>
+        <v>0.4017249167138862</v>
       </c>
       <c r="E75">
         <v>0.3952182376988169</v>
@@ -12160,13 +12160,13 @@
         <v>0.717927851</v>
       </c>
       <c r="B76">
-        <v>0.2112896298930703</v>
+        <v>0.232025397556573</v>
       </c>
       <c r="C76">
-        <v>0.2204234448082285</v>
+        <v>0.2309224448558757</v>
       </c>
       <c r="D76">
-        <v>0.2163653871857171</v>
+        <v>0.2133650432447241</v>
       </c>
       <c r="E76">
         <v>0.2192012313161632</v>
@@ -12315,13 +12315,13 @@
         <v>0.407859612</v>
       </c>
       <c r="B77">
-        <v>-0.1245892431603346</v>
+        <v>-0.05434680634552869</v>
       </c>
       <c r="C77">
-        <v>-0.06989578681949439</v>
+        <v>-0.1000914659034532</v>
       </c>
       <c r="D77">
-        <v>-0.0782247011423199</v>
+        <v>-0.1219973473917639</v>
       </c>
       <c r="E77">
         <v>-0.07008383352345027</v>
@@ -12470,13 +12470,13 @@
         <v>0.9410866919999999</v>
       </c>
       <c r="B78">
-        <v>0.5115494933279554</v>
+        <v>0.4989353667218987</v>
       </c>
       <c r="C78">
-        <v>0.4665807453083276</v>
+        <v>0.5054163161543452</v>
       </c>
       <c r="D78">
-        <v>0.5131941665854926</v>
+        <v>0.5166350793147357</v>
       </c>
       <c r="E78">
         <v>0.4643726069985603</v>
@@ -12625,13 +12625,13 @@
         <v>1.134364172</v>
       </c>
       <c r="B79">
-        <v>0.7674430583638727</v>
+        <v>0.7216745508621178</v>
       </c>
       <c r="C79">
-        <v>0.7026731320982339</v>
+        <v>0.7323681443121408</v>
       </c>
       <c r="D79">
-        <v>0.7670646074575527</v>
+        <v>0.7693611809924505</v>
       </c>
       <c r="E79">
         <v>0.7011920455342132</v>
@@ -12780,13 +12780,13 @@
         <v>1.021170297</v>
       </c>
       <c r="B80">
-        <v>0.673838883345967</v>
+        <v>0.6258527448177857</v>
       </c>
       <c r="C80">
-        <v>0.6023572457258676</v>
+        <v>0.6373874692086394</v>
       </c>
       <c r="D80">
-        <v>0.6727886383126395</v>
+        <v>0.6762795588337952</v>
       </c>
       <c r="E80">
         <v>0.6008081374526946</v>
@@ -12935,13 +12935,13 @@
         <v>0.744577103</v>
       </c>
       <c r="B81">
-        <v>0.2680923633098916</v>
+        <v>0.2701559362326535</v>
       </c>
       <c r="C81">
-        <v>0.2647515382520584</v>
+        <v>0.2702303768679876</v>
       </c>
       <c r="D81">
-        <v>0.2705461676958775</v>
+        <v>0.2721170646642162</v>
       </c>
       <c r="E81">
         <v>0.2621094130582906</v>
@@ -13090,13 +13090,13 @@
         <v>0.739134427</v>
       </c>
       <c r="B82">
-        <v>0.3869412694979151</v>
+        <v>0.372663985724372</v>
       </c>
       <c r="C82">
-        <v>0.3201846189596755</v>
+        <v>0.3797323608849316</v>
       </c>
       <c r="D82">
-        <v>0.3913938593341573</v>
+        <v>0.3809195063352465</v>
       </c>
       <c r="E82">
         <v>0.3234413495239699</v>
@@ -13245,13 +13245,13 @@
         <v>0.226931775</v>
       </c>
       <c r="B83">
-        <v>-0.05050511519699998</v>
+        <v>-0.05011389882471412</v>
       </c>
       <c r="C83">
-        <v>-0.05966581238899659</v>
+        <v>-0.05589927212719496</v>
       </c>
       <c r="D83">
-        <v>-0.04106613713020126</v>
+        <v>-0.04635948163783841</v>
       </c>
       <c r="E83">
         <v>-0.06064560340787087</v>
@@ -13400,13 +13400,13 @@
         <v>0.153490455</v>
       </c>
       <c r="B84">
-        <v>-0.1671699959272128</v>
+        <v>-0.1647194092265327</v>
       </c>
       <c r="C84">
-        <v>-0.1737805877400494</v>
+        <v>-0.1694346004447309</v>
       </c>
       <c r="D84">
-        <v>-0.1587294779710414</v>
+        <v>-0.16130793282999</v>
       </c>
       <c r="E84">
         <v>-0.1749823813854536</v>
@@ -13555,13 +13555,13 @@
         <v>-0.030111902</v>
       </c>
       <c r="B85">
-        <v>-0.2326106002601053</v>
+        <v>-0.2222459571174069</v>
       </c>
       <c r="C85">
-        <v>-0.1887527813675199</v>
+        <v>-0.2226267746866303</v>
       </c>
       <c r="D85">
-        <v>-0.2255814532410266</v>
+        <v>-0.2068574152587264</v>
       </c>
       <c r="E85">
         <v>-0.1899365255129465</v>
@@ -13710,13 +13710,13 @@
         <v>0.007322334</v>
       </c>
       <c r="B86">
-        <v>-0.3175200898633337</v>
+        <v>-0.339042600788954</v>
       </c>
       <c r="C86">
-        <v>-0.3900535425533856</v>
+        <v>-0.3357847095399438</v>
       </c>
       <c r="D86">
-        <v>-0.3117542780094333</v>
+        <v>-0.3247397485238538</v>
       </c>
       <c r="E86">
         <v>-0.3921565414539476</v>
@@ -13865,13 +13865,13 @@
         <v>-0.472334039</v>
       </c>
       <c r="B87">
-        <v>-0.6182463952340755</v>
+        <v>-0.5984258931791837</v>
       </c>
       <c r="C87">
-        <v>-0.6135631429832341</v>
+        <v>-0.6178082325107086</v>
       </c>
       <c r="D87">
-        <v>-0.6049050640507359</v>
+        <v>-0.6134266033673696</v>
       </c>
       <c r="E87">
         <v>-0.6154025922288369</v>
@@ -14020,13 +14020,13 @@
         <v>-0.205993001</v>
       </c>
       <c r="B88">
-        <v>-0.3237167314006286</v>
+        <v>-0.3664702131263755</v>
       </c>
       <c r="C88">
-        <v>-0.4584813116246143</v>
+        <v>-0.3660909959972341</v>
       </c>
       <c r="D88">
-        <v>-0.3154472698932393</v>
+        <v>-0.3563079584699285</v>
       </c>
       <c r="E88">
         <v>-0.4611993341667593</v>
@@ -14175,13 +14175,13 @@
         <v>0.358585953</v>
       </c>
       <c r="B89">
-        <v>-0.141911462908223</v>
+        <v>-0.173202882267251</v>
       </c>
       <c r="C89">
-        <v>-0.2090176690311446</v>
+        <v>-0.1656395377704093</v>
       </c>
       <c r="D89">
-        <v>-0.1264474574119427</v>
+        <v>-0.1497899795635405</v>
       </c>
       <c r="E89">
         <v>-0.2107551235548799</v>
@@ -14330,13 +14330,13 @@
         <v>-0.193909793</v>
       </c>
       <c r="B90">
-        <v>-0.6558314281886233</v>
+        <v>-0.643531357954509</v>
       </c>
       <c r="C90">
-        <v>-0.6588863837355735</v>
+        <v>-0.6619018103340342</v>
       </c>
       <c r="D90">
-        <v>-0.633955713343808</v>
+        <v>-0.6488428454947479</v>
       </c>
       <c r="E90">
         <v>-0.6606879746579921</v>
@@ -14485,13 +14485,13 @@
         <v>-0.333806235</v>
       </c>
       <c r="B91">
-        <v>-0.7725765968854961</v>
+        <v>-0.7516051034609627</v>
       </c>
       <c r="C91">
-        <v>-0.7667375191011767</v>
+        <v>-0.7778545209919516</v>
       </c>
       <c r="D91">
-        <v>-0.7460437237837076</v>
+        <v>-0.7671800669328042</v>
       </c>
       <c r="E91">
         <v>-0.7684414956972794</v>
@@ -14640,13 +14640,13 @@
         <v>-0.152969901</v>
       </c>
       <c r="B92">
-        <v>-0.6945013570586007</v>
+        <v>-0.6805574347193692</v>
       </c>
       <c r="C92">
-        <v>-0.6962384756934873</v>
+        <v>-0.7006682132340192</v>
       </c>
       <c r="D92">
-        <v>-0.6705328140078551</v>
+        <v>-0.687352079702037</v>
       </c>
       <c r="E92">
         <v>-0.6979725360219181</v>
@@ -14795,13 +14795,13 @@
         <v>0.084887538</v>
       </c>
       <c r="B93">
-        <v>-0.2903553342596088</v>
+        <v>-0.3618547772053669</v>
       </c>
       <c r="C93">
-        <v>-0.4961001006636913</v>
+        <v>-0.3642295444980277</v>
       </c>
       <c r="D93">
-        <v>-0.271148591651571</v>
+        <v>-0.4037710670716342</v>
       </c>
       <c r="E93">
         <v>-0.4986735580429432</v>
@@ -14950,13 +14950,13 @@
         <v>-0.477853004</v>
       </c>
       <c r="B94">
-        <v>-0.8633372478324302</v>
+        <v>-0.8365894559954382</v>
       </c>
       <c r="C94">
-        <v>-0.8513307089911506</v>
+        <v>-0.8679001416243837</v>
       </c>
       <c r="D94">
-        <v>-0.8363568399040855</v>
+        <v>-0.8586145576241223</v>
       </c>
       <c r="E94">
         <v>-0.8531704425991854</v>
@@ -15105,13 +15105,13 @@
         <v>-0.196793988</v>
       </c>
       <c r="B95">
-        <v>-0.8097662189497701</v>
+        <v>-0.789716844009549</v>
       </c>
       <c r="C95">
-        <v>-0.8052134763359691</v>
+        <v>-0.8154649097553615</v>
       </c>
       <c r="D95">
-        <v>-0.7885350036312246</v>
+        <v>-0.8043573261205789</v>
       </c>
       <c r="E95">
         <v>-0.8072433043144758</v>
@@ -15260,13 +15260,13 @@
         <v>-0.035189774</v>
       </c>
       <c r="B96">
-        <v>-0.5051229466135394</v>
+        <v>-0.5002941843859301</v>
       </c>
       <c r="C96">
-        <v>-0.5112297394117272</v>
+        <v>-0.5097673966253436</v>
       </c>
       <c r="D96">
-        <v>-0.487397052520468</v>
+        <v>-0.4923410528974533</v>
       </c>
       <c r="E96">
         <v>-0.5130312223804347</v>
@@ -15415,13 +15415,13 @@
         <v>-0.119794953</v>
       </c>
       <c r="B97">
-        <v>-0.4759228669716305</v>
+        <v>-0.4713805925230918</v>
       </c>
       <c r="C97">
-        <v>-0.4822288590302168</v>
+        <v>-0.4805739159126023</v>
       </c>
       <c r="D97">
-        <v>-0.4573194145447597</v>
+        <v>-0.4630863717002258</v>
       </c>
       <c r="E97">
         <v>-0.4839015523442005</v>
@@ -15570,13 +15570,13 @@
         <v>-0.137195461</v>
       </c>
       <c r="B98">
-        <v>-0.4963668799547132</v>
+        <v>-0.491529685905242</v>
       </c>
       <c r="C98">
-        <v>-0.5026654525422054</v>
+        <v>-0.5010171519523087</v>
       </c>
       <c r="D98">
-        <v>-0.4782216458729407</v>
+        <v>-0.4837272354263257</v>
       </c>
       <c r="E98">
         <v>-0.504404791532805</v>
@@ -15725,13 +15725,13 @@
         <v>-0.048780735</v>
       </c>
       <c r="B99">
-        <v>-0.262681558294476</v>
+        <v>-0.3339441133726828</v>
       </c>
       <c r="C99">
-        <v>-0.4737105159827685</v>
+        <v>-0.3362641457706997</v>
       </c>
       <c r="D99">
-        <v>-0.2464170971290061</v>
+        <v>-0.3646425141293275</v>
       </c>
       <c r="E99">
         <v>-0.4763654317999857</v>
@@ -15880,13 +15880,13 @@
         <v>-0.265775876</v>
       </c>
       <c r="B100">
-        <v>-0.4304228981362866</v>
+        <v>-0.4255461637134558</v>
       </c>
       <c r="C100">
-        <v>-0.4301228752160495</v>
+        <v>-0.4318224069457726</v>
       </c>
       <c r="D100">
-        <v>-0.4143332233325711</v>
+        <v>-0.4126141774541524</v>
       </c>
       <c r="E100">
         <v>-0.4318025619005645</v>
@@ -16035,13 +16035,13 @@
         <v>-1.383090189</v>
       </c>
       <c r="B101">
-        <v>-1.293664205946668</v>
+        <v>-1.269338093126473</v>
       </c>
       <c r="C101">
-        <v>-1.277257415616925</v>
+        <v>-1.296086544494077</v>
       </c>
       <c r="D101">
-        <v>-1.279689091231753</v>
+        <v>-1.291761056172128</v>
       </c>
       <c r="E101">
         <v>-1.279135209683872</v>
@@ -16190,13 +16190,13 @@
         <v>-1.491020681</v>
       </c>
       <c r="B102">
-        <v>-1.456513783735541</v>
+        <v>-1.408717057094176</v>
       </c>
       <c r="C102">
-        <v>-1.411451281754929</v>
+        <v>-1.455887171408107</v>
       </c>
       <c r="D102">
-        <v>-1.374842638020139</v>
+        <v>-1.455528601573676</v>
       </c>
       <c r="E102">
         <v>-1.412737283570824</v>
@@ -16345,13 +16345,13 @@
         <v>-1.726097843</v>
       </c>
       <c r="B103">
-        <v>-1.790783460726239</v>
+        <v>-1.718521769427411</v>
       </c>
       <c r="C103">
-        <v>-1.708796607015069</v>
+        <v>-1.789457133435867</v>
       </c>
       <c r="D103">
-        <v>-1.924891974979719</v>
+        <v>-1.792236900185403</v>
       </c>
       <c r="E103">
         <v>-1.709216445922603</v>
@@ -16500,13 +16500,13 @@
         <v>-1.861585716</v>
       </c>
       <c r="B104">
-        <v>-1.87668546467717</v>
+        <v>-1.799867481755943</v>
       </c>
       <c r="C104">
-        <v>-1.789607995398182</v>
+        <v>-1.873161043875639</v>
       </c>
       <c r="D104">
-        <v>-2.030508769229308</v>
+        <v>-1.878092425766547</v>
       </c>
       <c r="E104">
         <v>-1.789967165922419</v>
@@ -16655,13 +16655,13 @@
         <v>-1.803675785</v>
       </c>
       <c r="B105">
-        <v>-1.841232950104705</v>
+        <v>-1.772686920272679</v>
       </c>
       <c r="C105">
-        <v>-1.766937598887511</v>
+        <v>-1.836807618650627</v>
       </c>
       <c r="D105">
-        <v>-1.933378059566927</v>
+        <v>-1.841759208218905</v>
       </c>
       <c r="E105">
         <v>-1.767405768048067</v>
@@ -16810,13 +16810,13 @@
         <v>-1.009398128</v>
       </c>
       <c r="B106">
-        <v>-1.127279002045336</v>
+        <v>-1.122038157202633</v>
       </c>
       <c r="C106">
-        <v>-1.132270696392141</v>
+        <v>-1.127238659434909</v>
       </c>
       <c r="D106">
-        <v>-1.129095182433946</v>
+        <v>-1.124933865146837</v>
       </c>
       <c r="E106">
         <v>-1.133946541600402</v>
@@ -16965,13 +16965,13 @@
         <v>-0.412606248</v>
       </c>
       <c r="B107">
-        <v>-0.3175146568871511</v>
+        <v>-0.3978191099232366</v>
       </c>
       <c r="C107">
-        <v>-0.5392475104908478</v>
+        <v>-0.4005073943056151</v>
       </c>
       <c r="D107">
-        <v>-0.3012317625387588</v>
+        <v>-0.4193100045096521</v>
       </c>
       <c r="E107">
         <v>-0.5422982619543147</v>
@@ -17120,13 +17120,13 @@
         <v>-0.51999747</v>
       </c>
       <c r="B108">
-        <v>-0.5562493125641896</v>
+        <v>-0.5498148942908591</v>
       </c>
       <c r="C108">
-        <v>-0.5632434383248419</v>
+        <v>-0.5618835433073444</v>
       </c>
       <c r="D108">
-        <v>-0.5380786527693128</v>
+        <v>-0.5461575366994155</v>
       </c>
       <c r="E108">
         <v>-0.5651007382968997</v>
@@ -17275,13 +17275,13 @@
         <v>0.068281413</v>
       </c>
       <c r="B109">
-        <v>-0.4268654924966495</v>
+        <v>-0.4224941687515685</v>
       </c>
       <c r="C109">
-        <v>-0.4283078188806714</v>
+        <v>-0.4292045140263233</v>
       </c>
       <c r="D109">
-        <v>-0.4086901111627614</v>
+        <v>-0.4089203332052103</v>
       </c>
       <c r="E109">
         <v>-0.4298966626727029</v>
@@ -17430,13 +17430,13 @@
         <v>0.724845088</v>
       </c>
       <c r="B110">
-        <v>0.4007627743928405</v>
+        <v>0.3417201212145574</v>
       </c>
       <c r="C110">
-        <v>0.3148295826918798</v>
+        <v>0.3705368943396609</v>
       </c>
       <c r="D110">
-        <v>0.4148382829938102</v>
+        <v>0.3968202660459564</v>
       </c>
       <c r="E110">
         <v>0.314393661314881</v>
@@ -17585,13 +17585,13 @@
         <v>0.843675493</v>
       </c>
       <c r="B111">
-        <v>0.5923383681840864</v>
+        <v>0.5257187082603308</v>
       </c>
       <c r="C111">
-        <v>0.5022473442245162</v>
+        <v>0.5582615800384825</v>
       </c>
       <c r="D111">
-        <v>0.6043216811261322</v>
+        <v>0.5879180273582139</v>
       </c>
       <c r="E111">
         <v>0.5025604954401859</v>
@@ -17740,13 +17740,13 @@
         <v>1.000687569</v>
       </c>
       <c r="B112">
-        <v>0.6544629085070195</v>
+        <v>0.579456953814946</v>
       </c>
       <c r="C112">
-        <v>0.5555307040455572</v>
+        <v>0.6171340696752752</v>
       </c>
       <c r="D112">
-        <v>0.66612100760363</v>
+        <v>0.6497918151526967</v>
       </c>
       <c r="E112">
         <v>0.5559139971858216</v>
@@ -17895,13 +17895,13 @@
         <v>1.420234526</v>
       </c>
       <c r="B113">
-        <v>1.138462553753546</v>
+        <v>1.039048644671148</v>
       </c>
       <c r="C113">
-        <v>1.02574973380329</v>
+        <v>1.09007174793131</v>
       </c>
       <c r="D113">
-        <v>1.147454117580809</v>
+        <v>1.130357659449746</v>
       </c>
       <c r="E113">
         <v>1.028208540257213</v>
@@ -18050,13 +18050,13 @@
         <v>1.57372364</v>
       </c>
       <c r="B114">
-        <v>1.448025053464297</v>
+        <v>1.328385843616677</v>
       </c>
       <c r="C114">
-        <v>1.322740989883676</v>
+        <v>1.392476892211893</v>
       </c>
       <c r="D114">
-        <v>1.454727222170134</v>
+        <v>1.437004345818887</v>
       </c>
       <c r="E114">
         <v>1.326609098372009</v>
@@ -18205,13 +18205,13 @@
         <v>1.732814752</v>
       </c>
       <c r="B115">
-        <v>1.932916859943928</v>
+        <v>1.773485536959889</v>
       </c>
       <c r="C115">
-        <v>1.783087311534088</v>
+        <v>1.853062040022164</v>
       </c>
       <c r="D115">
-        <v>1.931857794232655</v>
+        <v>1.915504741677256</v>
       </c>
       <c r="E115">
         <v>1.790704750473978</v>
@@ -18360,13 +18360,13 @@
         <v>2.09753689</v>
       </c>
       <c r="B116">
-        <v>2.24791639460418</v>
+        <v>2.070343120080977</v>
       </c>
       <c r="C116">
-        <v>2.090636312631159</v>
+        <v>2.163524015428582</v>
       </c>
       <c r="D116">
-        <v>2.24358520837867</v>
+        <v>2.226409956158245</v>
       </c>
       <c r="E116">
         <v>2.10019458680137</v>
@@ -18515,13 +18515,13 @@
         <v>1.876536832</v>
       </c>
       <c r="B117">
-        <v>2.144619243884392</v>
+        <v>1.974673574837204</v>
       </c>
       <c r="C117">
-        <v>1.987967041452528</v>
+        <v>2.057735249664802</v>
       </c>
       <c r="D117">
-        <v>2.141539294966388</v>
+        <v>2.12459885005621</v>
       </c>
       <c r="E117">
         <v>1.997249479796451</v>
@@ -18670,13 +18670,13 @@
         <v>1.903128061</v>
       </c>
       <c r="B118">
-        <v>1.928749722389604</v>
+        <v>1.774302738874213</v>
       </c>
       <c r="C118">
-        <v>1.782061762641903</v>
+        <v>1.856755956443243</v>
       </c>
       <c r="D118">
-        <v>1.929309434448021</v>
+        <v>1.91184751249357</v>
       </c>
       <c r="E118">
         <v>1.789178731062362</v>
@@ -18825,13 +18825,13 @@
         <v>2.565704836</v>
       </c>
       <c r="B119">
-        <v>2.378533622739042</v>
+        <v>2.20495886190665</v>
       </c>
       <c r="C119">
-        <v>2.230945583227937</v>
+        <v>2.297385183334306</v>
       </c>
       <c r="D119">
-        <v>2.372961934348242</v>
+        <v>2.354340047972701</v>
       </c>
       <c r="E119">
         <v>2.24244724668903</v>
@@ -18980,13 +18980,13 @@
         <v>2.524999221</v>
       </c>
       <c r="B120">
-        <v>2.294174566318346</v>
+        <v>2.120142213465981</v>
       </c>
       <c r="C120">
-        <v>2.143894212573626</v>
+        <v>2.20749385025819</v>
       </c>
       <c r="D120">
-        <v>2.288263105887778</v>
+        <v>2.270808664029541</v>
       </c>
       <c r="E120">
         <v>2.155139341178101</v>
@@ -19135,13 +19135,13 @@
         <v>2.253887829</v>
       </c>
       <c r="B121">
-        <v>2.370141409594539</v>
+        <v>2.186753795044062</v>
       </c>
       <c r="C121">
-        <v>2.214144983943465</v>
+        <v>2.278087215478825</v>
       </c>
       <c r="D121">
-        <v>2.361955354122206</v>
+        <v>2.344643779497672</v>
       </c>
       <c r="E121">
         <v>2.226816269070082</v>
@@ -19290,13 +19290,13 @@
         <v>1.717105097</v>
       </c>
       <c r="B122">
-        <v>1.799514377279701</v>
+        <v>1.655912016351481</v>
       </c>
       <c r="C122">
-        <v>1.662510716647393</v>
+        <v>1.728571534238766</v>
       </c>
       <c r="D122">
-        <v>1.800668069593897</v>
+        <v>1.783812551917331</v>
       </c>
       <c r="E122">
         <v>1.669249479967183</v>
@@ -19445,13 +19445,13 @@
         <v>1.56643693</v>
       </c>
       <c r="B123">
-        <v>1.568971268825299</v>
+        <v>1.436917014513104</v>
       </c>
       <c r="C123">
-        <v>1.434243742144908</v>
+        <v>1.501759951911919</v>
       </c>
       <c r="D123">
-        <v>1.572007381796478</v>
+        <v>1.555998408403478</v>
       </c>
       <c r="E123">
         <v>1.439765020338096</v>
@@ -19600,13 +19600,13 @@
         <v>1.670021813</v>
       </c>
       <c r="B124">
-        <v>1.633208134416293</v>
+        <v>1.494577424895402</v>
       </c>
       <c r="C124">
-        <v>1.493400835633349</v>
+        <v>1.563180748707979</v>
       </c>
       <c r="D124">
-        <v>1.635779357518854</v>
+        <v>1.619670766263464</v>
       </c>
       <c r="E124">
         <v>1.499073832687778</v>
@@ -19755,13 +19755,13 @@
         <v>1.289704565</v>
       </c>
       <c r="B125">
-        <v>1.190109937012415</v>
+        <v>1.087784362824547</v>
       </c>
       <c r="C125">
-        <v>1.075769555264493</v>
+        <v>1.140192397101883</v>
       </c>
       <c r="D125">
-        <v>1.198637977684735</v>
+        <v>1.181546188246151</v>
       </c>
       <c r="E125">
         <v>1.078499895044499</v>
@@ -19910,13 +19910,13 @@
         <v>1.598926475</v>
       </c>
       <c r="B126">
-        <v>1.585525616503205</v>
+        <v>1.457351877629514</v>
       </c>
       <c r="C126">
-        <v>1.455776207823682</v>
+        <v>1.525770825306125</v>
       </c>
       <c r="D126">
-        <v>1.590617839328935</v>
+        <v>1.572962751007341</v>
       </c>
       <c r="E126">
         <v>1.460507862804999</v>
@@ -20065,13 +20065,13 @@
         <v>1.548087648</v>
       </c>
       <c r="B127">
-        <v>1.274165221904572</v>
+        <v>1.159795124976743</v>
       </c>
       <c r="C127">
-        <v>1.14877130931176</v>
+        <v>1.219184546297899</v>
       </c>
       <c r="D127">
-        <v>1.281981898424262</v>
+        <v>1.264844815217173</v>
       </c>
       <c r="E127">
         <v>1.151807194956761</v>
@@ -20220,13 +20220,13 @@
         <v>1.53687982</v>
       </c>
       <c r="B128">
-        <v>1.413195394280359</v>
+        <v>1.290925308711779</v>
       </c>
       <c r="C128">
-        <v>1.282806476355198</v>
+        <v>1.357002316784007</v>
       </c>
       <c r="D128">
-        <v>1.420744064993652</v>
+        <v>1.402737161491588</v>
       </c>
       <c r="E128">
         <v>1.28617744142779</v>
@@ -20375,13 +20375,13 @@
         <v>1.443008135</v>
       </c>
       <c r="B129">
-        <v>1.259047676408405</v>
+        <v>1.150699726179858</v>
       </c>
       <c r="C129">
-        <v>1.138537268795429</v>
+        <v>1.205621851963424</v>
       </c>
       <c r="D129">
-        <v>1.267349631322447</v>
+        <v>1.250119662453346</v>
       </c>
       <c r="E129">
         <v>1.141319042476892</v>
@@ -20530,13 +20530,13 @@
         <v>1.453311511</v>
       </c>
       <c r="B130">
-        <v>1.642857268020983</v>
+        <v>1.507434499551125</v>
       </c>
       <c r="C130">
-        <v>1.505956125241163</v>
+        <v>1.580323220652826</v>
       </c>
       <c r="D130">
-        <v>1.647242067213722</v>
+        <v>1.629752617087052</v>
       </c>
       <c r="E130">
         <v>1.510911272532551</v>
@@ -20685,13 +20685,13 @@
         <v>0.170289762</v>
       </c>
       <c r="B131">
-        <v>0.6837669800854853</v>
+        <v>0.6095870054201227</v>
       </c>
       <c r="C131">
-        <v>0.5865939715882171</v>
+        <v>0.6483317564989435</v>
       </c>
       <c r="D131">
-        <v>0.6966518149306259</v>
+        <v>0.6787433459129124</v>
       </c>
       <c r="E131">
         <v>0.586815924696131</v>
@@ -20840,13 +20840,13 @@
         <v>0.108929054</v>
       </c>
       <c r="B132">
-        <v>0.6238139451261451</v>
+        <v>0.5518903402509829</v>
       </c>
       <c r="C132">
-        <v>0.5278480744676717</v>
+        <v>0.5887321145661959</v>
       </c>
       <c r="D132">
-        <v>0.6367294780189287</v>
+        <v>0.6191221204550347</v>
       </c>
       <c r="E132">
         <v>0.5280021121644218</v>
@@ -20995,13 +20995,13 @@
         <v>0.556826058</v>
       </c>
       <c r="B133">
-        <v>0.6656309630620141</v>
+        <v>0.5916811172516494</v>
       </c>
       <c r="C133">
-        <v>0.5686187620640364</v>
+        <v>0.6297571992707018</v>
       </c>
       <c r="D133">
-        <v>0.6784514332864456</v>
+        <v>0.6607336520895981</v>
       </c>
       <c r="E133">
         <v>0.5689838557379716</v>
@@ -21150,13 +21150,13 @@
         <v>0.756759764</v>
       </c>
       <c r="B134">
-        <v>0.9119063948663939</v>
+        <v>0.8225773485813668</v>
       </c>
       <c r="C134">
-        <v>0.8039611373909279</v>
+        <v>0.8692916715716028</v>
       </c>
       <c r="D134">
-        <v>0.9229086954719823</v>
+        <v>0.9055545275087572</v>
       </c>
       <c r="E134">
         <v>0.8053288329756025</v>
@@ -21305,13 +21305,13 @@
         <v>0.307333133</v>
       </c>
       <c r="B135">
-        <v>0.4177623353057275</v>
+        <v>0.3619688458567988</v>
       </c>
       <c r="C135">
-        <v>0.336286772438888</v>
+        <v>0.3881946104202404</v>
       </c>
       <c r="D135">
-        <v>0.4306907085566398</v>
+        <v>0.4139116468355753</v>
       </c>
       <c r="E135">
         <v>0.3360479676185002</v>
@@ -21460,13 +21460,13 @@
         <v>0.419613927</v>
       </c>
       <c r="B136">
-        <v>0.5768628860744138</v>
+        <v>0.5066782624024893</v>
       </c>
       <c r="C136">
-        <v>0.4816285229569764</v>
+        <v>0.5415933824719814</v>
       </c>
       <c r="D136">
-        <v>0.5889434016114449</v>
+        <v>0.5725504004260191</v>
       </c>
       <c r="E136">
         <v>0.4817402818756369</v>
@@ -21615,13 +21615,13 @@
         <v>0.918398419</v>
       </c>
       <c r="B137">
-        <v>1.085252499104681</v>
+        <v>0.9888330261157425</v>
       </c>
       <c r="C137">
-        <v>0.9742593491576935</v>
+        <v>1.038402633905541</v>
       </c>
       <c r="D137">
-        <v>1.094700975266174</v>
+        <v>1.077599726367961</v>
       </c>
       <c r="E137">
         <v>0.9764485321348817</v>
